--- a/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
+++ b/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/north_pacific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A724955-3745-B340-B89C-728B2BE98DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A0983-C703-A644-BDE4-101EB267F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="2740" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -594,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,17 +747,17 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -768,7 +768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -878,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -889,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -900,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -955,7 +955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -966,7 +966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -988,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1179,10 +1179,10 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -1191,7 +1191,7 @@
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>

--- a/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
+++ b/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/north_pacific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A0983-C703-A644-BDE4-101EB267F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0FDCC2-536B-D74E-8930-30145E33AE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
+    <workbookView xWindow="15380" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="120">
   <si>
     <t xml:space="preserve">Magistrate armhook squid </t>
   </si>
@@ -371,6 +371,21 @@
   </si>
   <si>
     <t>Giant Pacific octopus</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t>dist_shift</t>
+  </si>
+  <si>
+    <t>dist_shift_certainty</t>
+  </si>
+  <si>
+    <t>dir_effect</t>
+  </si>
+  <si>
+    <t>dir_effect_certainty</t>
   </si>
 </sst>
 </file>
@@ -1176,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A95EF-B50A-FF41-B58F-36EE0B08CAD4}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,26 +1204,45 @@
     <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1224,8 +1258,11 @@
       <c r="E2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1241,8 +1278,11 @@
       <c r="E3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1258,8 +1298,11 @@
       <c r="E4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1275,8 +1318,11 @@
       <c r="E5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1292,8 +1338,11 @@
       <c r="E6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1309,8 +1358,11 @@
       <c r="E7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1326,8 +1378,11 @@
       <c r="E8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1343,8 +1398,11 @@
       <c r="E9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1360,8 +1418,11 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1377,8 +1438,11 @@
       <c r="E11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="E12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1411,8 +1478,11 @@
       <c r="E13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1428,8 +1498,11 @@
       <c r="E14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1445,8 +1518,11 @@
       <c r="E15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1462,8 +1538,11 @@
       <c r="E16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1479,8 +1558,11 @@
       <c r="E17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1496,8 +1578,11 @@
       <c r="E18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1513,8 +1598,11 @@
       <c r="E19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1530,8 +1618,11 @@
       <c r="E20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1547,8 +1638,11 @@
       <c r="E21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1564,8 +1658,11 @@
       <c r="E22" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1581,8 +1678,11 @@
       <c r="E23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1598,8 +1698,11 @@
       <c r="E24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1615,8 +1718,11 @@
       <c r="E25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1632,8 +1738,11 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1649,8 +1758,11 @@
       <c r="E27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1666,8 +1778,11 @@
       <c r="E28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1683,8 +1798,11 @@
       <c r="E29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1700,8 +1818,11 @@
       <c r="E30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1717,8 +1838,11 @@
       <c r="E31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1734,8 +1858,11 @@
       <c r="E32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1751,8 +1878,11 @@
       <c r="E33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1768,8 +1898,11 @@
       <c r="E34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1785,8 +1918,11 @@
       <c r="E35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1802,8 +1938,11 @@
       <c r="E36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -1818,6 +1957,9 @@
       </c>
       <c r="E37" t="s">
         <v>96</v>
+      </c>
+      <c r="F37">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
+++ b/data/cva/raw/north_pacific/Spencer_etal_2019_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/north_pacific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0FDCC2-536B-D74E-8930-30145E33AE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86695D78-FA13-F548-8713-C7F241589B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
+    <workbookView xWindow="14580" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{49A454B6-95A7-0546-BABF-86CA809FB158}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="116">
   <si>
     <t xml:space="preserve">Magistrate armhook squid </t>
   </si>
@@ -374,25 +374,13 @@
   </si>
   <si>
     <t>certainty</t>
-  </si>
-  <si>
-    <t>dist_shift</t>
-  </si>
-  <si>
-    <t>dist_shift_certainty</t>
-  </si>
-  <si>
-    <t>dir_effect</t>
-  </si>
-  <si>
-    <t>dir_effect_certainty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,14 +753,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -783,7 +771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -794,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -805,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -816,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -827,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -838,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -849,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -860,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -871,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -882,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -893,7 +881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -904,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -915,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -926,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -937,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -948,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -959,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -970,7 +958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -981,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -992,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1014,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1036,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1058,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1069,7 +1057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1080,7 +1068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1091,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1102,7 +1090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1113,7 +1101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1124,7 +1112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1135,7 +1123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1146,7 +1134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1157,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1179,7 +1167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1191,26 +1179,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A95EF-B50A-FF41-B58F-36EE0B08CAD4}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>85</v>
       </c>
@@ -1229,20 +1213,8 @@
       <c r="F1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1262,7 +1234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1282,7 +1254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1302,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1322,7 +1294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1342,7 +1314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1362,7 +1334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1382,7 +1354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1402,7 +1374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1422,7 +1394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1442,7 +1414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1462,7 +1434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -1482,7 +1454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -1502,7 +1474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1522,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1542,7 +1514,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1562,7 +1534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1582,7 +1554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1602,7 +1574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1622,7 +1594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1642,7 +1614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1662,7 +1634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1682,7 +1654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1702,7 +1674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1722,7 +1694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1742,7 +1714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1762,7 +1734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1782,7 +1754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1802,7 +1774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1822,7 +1794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1842,7 +1814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1862,7 +1834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1882,7 +1854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1902,7 +1874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -1922,7 +1894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1942,7 +1914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>96</v>
       </c>
